--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -1,33 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B1F577-5135-4501-AA04-D115A724EC69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{A2B1F577-5135-4501-AA04-D115A724EC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B9AB53A-8C0B-47CA-BF4C-D7E5B29295BE}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginService" sheetId="1" r:id="rId1"/>
+    <sheet name="SignupService" sheetId="2" r:id="rId1"/>
+    <sheet name="LoginService" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t xml:space="preserve"> アクター別パッケージ名</t>
+    <t>　--r 返り値のデータ型</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve"> フィールド</t>
@@ -38,15 +51,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　--r 返り値のデータ型</t>
-    <phoneticPr fontId="2"/>
+    <t xml:space="preserve"> アクター別パッケージ名</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,14 +156,1512 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6E5EB4-D9B2-C239-0633-45C7086B4F17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="1266825"/>
+          <a:ext cx="10496550" cy="3914775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SignupService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FD486A-1973-CACF-7A46-72AE5E7B0C81}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DD6E5EB4-D9B2-C239-0633-45C7086B4F17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="2762250"/>
+          <a:ext cx="2209800" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028E03BC-9DDD-4AD0-9E74-C95901BCBEBD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{13FD486A-1973-CACF-7A46-72AE5E7B0C81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="2752725"/>
+          <a:ext cx="2486025" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>passEncoder : PasswordEncoder</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C007EC5-D5BE-402E-A796-01B4999477F5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{028E03BC-9DDD-4AD0-9E74-C95901BCBEBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12534900" y="2752725"/>
+          <a:ext cx="2171700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>mapper : DozerBeanMapper</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E000FAB-A0E8-4A61-AB9F-B07B8A410398}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1C007EC5-D5BE-402E-A796-01B4999477F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="3486150"/>
+          <a:ext cx="2257425" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>register ( form : SignupForm )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r UserInfo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{321FC4DB-6CDA-4620-9287-A933FBA7955D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5E000FAB-A0E8-4A61-AB9F-B07B8A410398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9953625" y="3486150"/>
+          <a:ext cx="3086100" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>confirmUserName ( userName : String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Boolean</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7078CBE-EEF8-4A77-B66F-F4A0FDC01543}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{321FC4DB-6CDA-4620-9287-A933FBA7955D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13211175" y="3476625"/>
+          <a:ext cx="3086100" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>confirmEmail ( email : String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Boolean</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88BF200-C822-4642-9892-96B9BF7B69B8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E7078CBE-EEF8-4A77-B66F-F4A0FDC01543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486650" y="4333875"/>
+          <a:ext cx="3343275" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>searchRepositoryByEmail ( email : String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r &lt;Optional&gt;UserInfo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE9C17B-7BF1-458C-8FC2-4CFA2FE18CF7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E88BF200-C822-4642-9892-96B9BF7B69B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11001375" y="4324350"/>
+          <a:ext cx="3343275" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>setNewPass( id : int, newPass : String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -168,8 +1678,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7077075" y="2733675"/>
-          <a:ext cx="4800600" cy="5172075"/>
+          <a:off x="6981825" y="2733675"/>
+          <a:ext cx="6191250" cy="5172075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -983,6 +2493,208 @@
             </a:solidFill>
             <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06BF7240-FDB2-41C1-A0F5-66579A2F96DC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E731847F-60F7-414A-848A-B19CD3CC571C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7229475" y="6943725"/>
+          <a:ext cx="5038725" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>setUser( id : int,  userName : String, kana : String, email : String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1307,37 +3019,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2340-5DDE-46FC-AC51-D1EAD895E92E}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8" ht="18.75">
       <c r="G20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9" ht="18.75">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9" ht="18.75">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="F20:I105"/>
+  <sheetViews>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="G20" t="s">
         <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\service\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_mon\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{A2B1F577-5135-4501-AA04-D115A724EC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B9AB53A-8C0B-47CA-BF4C-D7E5B29295BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E50C4B-6BAC-4D1B-A093-B0ADFD9E0266}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignupService" sheetId="2" r:id="rId1"/>
@@ -26,10 +26,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,8 +240,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -259,8 +259,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7553325" y="2762250"/>
-          <a:ext cx="2209800" cy="257175"/>
+          <a:off x="7385685" y="3133725"/>
+          <a:ext cx="2164080" cy="569595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -313,8 +313,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -332,8 +332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9944100" y="2752725"/>
-          <a:ext cx="2486025" cy="257175"/>
+          <a:off x="9730740" y="3124200"/>
+          <a:ext cx="2425065" cy="617220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -480,8 +480,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -499,8 +499,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12534900" y="2752725"/>
-          <a:ext cx="2171700" cy="257175"/>
+          <a:off x="12260580" y="3124200"/>
+          <a:ext cx="2125980" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -642,13 +642,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>167639</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -666,8 +666,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7505700" y="3486150"/>
-          <a:ext cx="2257425" cy="561975"/>
+          <a:off x="7353300" y="3971924"/>
+          <a:ext cx="2196465" cy="767715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -832,7 +832,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r UserInfo</a:t>
+            <a:t>--r User</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -844,13 +844,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>144779</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -868,8 +868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9953625" y="3486150"/>
-          <a:ext cx="3086100" cy="561975"/>
+          <a:off x="9740265" y="3971924"/>
+          <a:ext cx="3009900" cy="744855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1438,7 +1438,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r &lt;Optional&gt;UserInfo</a:t>
+            <a:t>--r Optional&lt;User&gt;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3022,31 +3022,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2340-5DDE-46FC-AC51-D1EAD895E92E}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="28.8" x14ac:dyDescent="0.7">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -3068,27 +3068,27 @@
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="28.8" x14ac:dyDescent="0.7">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_mon\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E50C4B-6BAC-4D1B-A093-B0ADFD9E0266}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{49E50C4B-6BAC-4D1B-A093-B0ADFD9E0266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A18E9E24-85C5-49F1-8ECD-153A32A7D754}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignupService" sheetId="2" r:id="rId1"/>
@@ -26,10 +26,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -53,12 +53,18 @@
   <si>
     <t xml:space="preserve"> アクター別パッケージ名</t>
   </si>
+  <si>
+    <t>getUserBy○○にメソッド名変更未</t>
+  </si>
+  <si>
+    <t>deleteUserBy○○にメソッド名変更未</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +96,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +123,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -123,12 +142,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1416,7 +1436,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>searchRepositoryByEmail ( email : String )</a:t>
+            <a:t>getUserByEmail ( email : String )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1618,7 +1638,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>setNewPass( id : int, newPass : String )</a:t>
+            <a:t>setUserPass( id : int, newPass : String )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1662,7 +1682,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1678,8 +1698,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6981825" y="2733675"/>
-          <a:ext cx="6191250" cy="5172075"/>
+          <a:off x="6981825" y="2628900"/>
+          <a:ext cx="6191250" cy="7934325"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1928,7 +1948,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFDAC4A-F9D5-49D4-A6E4-A564A3A95CFD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B9CB05A9-72F4-4FC7-987D-7049D996FD44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,8 +1963,15 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2125,7 +2152,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E9C3D0-965A-4133-A45B-43BD11BF9788}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8AFDAC4A-F9D5-49D4-A6E4-A564A3A95CFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,8 +2167,15 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2322,7 +2356,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E731847F-60F7-414A-848A-B19CD3CC571C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{36E9C3D0-965A-4133-A45B-43BD11BF9788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,8 +2371,15 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2694,6 +2735,612 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C08F9F9-B2BB-42E1-82C7-FA2BBEF45F51}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{06BF7240-FDB2-41C1-A0F5-66579A2F96DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="7410450"/>
+          <a:ext cx="5038725" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservationsByUserId( userId : int )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-- List&lt;Reservation&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1511947-3E91-404D-92D2-DB11A475E5D3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6C08F9F9-B2BB-42E1-82C7-FA2BBEF45F51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219950" y="8172450"/>
+          <a:ext cx="5038725" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getPastReservationsByUserId( userId : int )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-- List&lt;Reservation&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E1511947-3E91-404D-92D2-DB11A475E5D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="8963025"/>
+          <a:ext cx="5038725" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservationAblesByInterviewerName( interviewerName : String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-- List&lt;Reservation&gt;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3022,31 +3669,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2340-5DDE-46FC-AC51-D1EAD895E92E}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="28.8" x14ac:dyDescent="0.7">
+    <row r="105" spans="6:7" ht="28.9">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -3062,33 +3709,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F20:I105"/>
+  <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="28.8" x14ac:dyDescent="0.7">
+    <row r="52" spans="12:15" ht="15.75">
+      <c r="L52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" ht="15.75">
+      <c r="L53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="28.9">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_mon\meeting_reservation_system\class_diagram\after\service\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{49E50C4B-6BAC-4D1B-A093-B0ADFD9E0266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A18E9E24-85C5-49F1-8ECD-153A32A7D754}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFA154E-4AC7-4EE4-B32B-F9867CD1CC51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignupService" sheetId="2" r:id="rId1"/>
@@ -26,10 +26,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -53,18 +53,12 @@
   <si>
     <t xml:space="preserve"> アクター別パッケージ名</t>
   </si>
-  <si>
-    <t>getUserBy○○にメソッド名変更未</t>
-  </si>
-  <si>
-    <t>deleteUserBy○○にメソッド名変更未</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,7 +119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1963,7 +1957,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="91A5C4"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -2097,7 +2091,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>searchRepositoryByEmail(email</a:t>
+            <a:t>getUserByEmail(email</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -2118,7 +2112,19 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r &lt;Optional&gt;UserInfo</a:t>
+            <a:t>--r </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Optional&lt;User&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2167,7 +2173,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="91A5C4"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -2301,7 +2307,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>searchRepositoryById(id</a:t>
+            <a:t>getUserById(id</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -2322,7 +2328,28 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r &lt;Optional&gt;UserInfo</a:t>
+            <a:t>--r Optional&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2371,7 +2398,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="91A5C4"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -2505,7 +2532,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>deleteRepositoryById(id</a:t>
+            <a:t>deleteUserById(id</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -3150,13 +3177,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3174,8 +3201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7200900" y="8963025"/>
-          <a:ext cx="5038725" cy="542925"/>
+          <a:off x="7200900" y="9334501"/>
+          <a:ext cx="5181600" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3669,31 +3696,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2340-5DDE-46FC-AC51-D1EAD895E92E}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="28.9">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -3711,47 +3738,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="S49" sqref="S49"/>
+    <sheetView tabSelected="1" topLeftCell="J21" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="15.75">
-      <c r="L52" s="5" t="s">
-        <v>4</v>
-      </c>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" ht="15.75">
-      <c r="L53" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="28.9">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFA154E-4AC7-4EE4-B32B-F9867CD1CC51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3143,7 +3143,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getPastReservationsByUserId( userId : int )</a:t>
+            <a:t>getReservationPastsByUserId( userId : int )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3165,7 +3165,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>-- List&lt;Reservation&gt;</a:t>
+            <a:t>-- List&lt;ReservationPast&gt;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3738,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J21" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="J9" workbookViewId="0">
+      <selection activeCell="AU22" sqref="AU22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEBA9085-F4B4-49C9-90A2-C2108123DC60}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SignupService" sheetId="2" r:id="rId1"/>
-    <sheet name="LoginService" sheetId="1" r:id="rId2"/>
+    <sheet name="PassSetService" sheetId="7" r:id="rId1"/>
+    <sheet name="SignupService" sheetId="2" r:id="rId2"/>
+    <sheet name="UserGetService" sheetId="4" r:id="rId3"/>
+    <sheet name="UserSetService" sheetId="5" r:id="rId4"/>
+    <sheet name="ReservationsGetService" sheetId="6" r:id="rId5"/>
+    <sheet name="UserDeleteService" sheetId="3" r:id="rId6"/>
+    <sheet name="LoginService" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,10 +31,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -58,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +156,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFEBC7"/>
       <color rgb="FF91A5C4"/>
-      <color rgb="FFFFEBC7"/>
     </mruColors>
   </colors>
   <extLst>
@@ -183,6 +188,731 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010168EC-A859-4864-9B85-576E341A15A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="1495425"/>
+          <a:ext cx="10496550" cy="4600575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>PassSetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F574CAB-9F7E-44F9-88D6-6A440F6DF525}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{010168EC-A859-4864-9B85-576E341A15A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="3257550"/>
+          <a:ext cx="2209800" cy="598170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86243E9A-F777-499D-BE06-55518202E216}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0F574CAB-9F7E-44F9-88D6-6A440F6DF525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="3248025"/>
+          <a:ext cx="2486025" cy="645795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>passEncoder : PasswordEncoder</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BFC56B-410A-4178-AB8B-E5CBB9CFCB49}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{683128E0-09AD-455F-AA3E-5F9E415A9C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486650" y="5095875"/>
+          <a:ext cx="3343275" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getUserByEmail ( email : String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Optional&lt;User&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D92470-9054-4208-ABB4-13D14710438A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B7BFC56B-410A-4178-AB8B-E5CBB9CFCB49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11001375" y="5086350"/>
+          <a:ext cx="3343275" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>setUserPass( id : int, newPass : String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="角丸四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -1257,28 +1987,33 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="四角形 13">
+        <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88BF200-C822-4642-9892-96B9BF7B69B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D624869-2894-4CE5-A109-390033B21165}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E7078CBE-EEF8-4A77-B66F-F4A0FDC01543}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,8 +2021,758 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7486650" y="4333875"/>
-          <a:ext cx="3343275" cy="561975"/>
+          <a:off x="6419850" y="2028825"/>
+          <a:ext cx="5905500" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>UserGetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C826DA-E636-4B03-BE48-6B6B1D52EBF9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8D624869-2894-4CE5-A109-390033B21165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="3590925"/>
+          <a:ext cx="3590925" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA720C4B-31A0-4F89-8621-B0F6AB8360D7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{43C826DA-E636-4B03-BE48-6B6B1D52EBF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410450" y="4552950"/>
+          <a:ext cx="3971925" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getUserById(id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Optional&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8347A33F-1466-4B83-8760-752AF1BDDAC7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419850" y="2028825"/>
+          <a:ext cx="5905500" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>UserSetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87E1B56-50BA-46A1-AFD7-A0C980AC14F9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8347A33F-1466-4B83-8760-752AF1BDDAC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="3590925"/>
+          <a:ext cx="3590925" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6554A01-0086-49A0-9AD0-C28426F8EEEE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D87E1B56-50BA-46A1-AFD7-A0C980AC14F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="4829175"/>
+          <a:ext cx="5038725" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1430,7 +2915,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getUserByEmail ( email : String )</a:t>
+            <a:t>setUser( id : int,  userName : String, kana : String, email : String )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1452,7 +2937,96 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r Optional&lt;User&gt;</a:t>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858E1EF8-AAE4-442F-BCE7-8CA9A20463C9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="2324100"/>
+          <a:ext cx="5905500" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationsGetService</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1461,26 +3035,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="四角形 15">
+        <xdr:cNvPr id="3" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE9C17B-7BF1-458C-8FC2-4CFA2FE18CF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504CB7BB-EF30-4E04-AF44-C80406BB64CF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E88BF200-C822-4642-9892-96B9BF7B69B8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{858E1EF8-AAE4-442F-BCE7-8CA9A20463C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1488,8 +3062,184 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11001375" y="4324350"/>
-          <a:ext cx="3343275" cy="561975"/>
+          <a:off x="7429500" y="3590925"/>
+          <a:ext cx="3590925" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1AB334E-3DD2-4163-8B7C-FF40D11AD65C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{504CB7BB-EF30-4E04-AF44-C80406BB64CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="4105275"/>
+          <a:ext cx="5181600" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1632,7 +3382,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>setUserPass( id : int, newPass : String )</a:t>
+            <a:t>getReservationAblesByInterviewerName( interviewerName : String )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1654,7 +3404,484 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r String</a:t>
+            <a:t>-- List&lt;Reservation&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFF6D72-D659-483A-9259-2C18CB629AAC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A1AB334E-3DD2-4163-8B7C-FF40D11AD65C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="4962525"/>
+          <a:ext cx="5038725" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservationsByUserId( userId : int )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-- List&lt;Reservation&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BDC46D4-2767-4358-8DBE-1D0A659E9549}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1AFF6D72-D659-483A-9259-2C18CB629AAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="5791200"/>
+          <a:ext cx="5038725" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservationPastsByUserId( userId : int )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-- List&lt;ReservationPast&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA283918-12C8-9BBF-550D-68CE088A2526}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9BDC46D4-2767-4358-8DBE-1D0A659E9549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="3543300"/>
+          <a:ext cx="3752850" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository : ReservationsRepository</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1664,7 +3891,476 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41B2485-643B-4270-4C79-61CBEF1F85A1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419850" y="2028825"/>
+          <a:ext cx="5905500" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>UserDeleteService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFD7B8D-BFF6-4C92-95FF-605D25402E8F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{177EF71F-5EAD-4310-8BEC-A3029622D686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="3590925"/>
+          <a:ext cx="3571875" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{61FB6372-744C-4096-808F-569297F72F01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334249" y="4848224"/>
+          <a:ext cx="3971925" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>deleteUserById(id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2132,1243 +4828,6 @@
             </a:solidFill>
             <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E9C3D0-965A-4133-A45B-43BD11BF9788}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8AFDAC4A-F9D5-49D4-A6E4-A564A3A95CFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7229474" y="5153024"/>
-          <a:ext cx="3971925" cy="733425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getUserById(id</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : int)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r Optional&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>User</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E731847F-60F7-414A-848A-B19CD3CC571C}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{36E9C3D0-965A-4133-A45B-43BD11BF9788}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7229474" y="6048374"/>
-          <a:ext cx="3971925" cy="733425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>deleteUserById(id</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : int)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06BF7240-FDB2-41C1-A0F5-66579A2F96DC}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E731847F-60F7-414A-848A-B19CD3CC571C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7229475" y="6943725"/>
-          <a:ext cx="5038725" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>setUser( id : int,  userName : String, kana : String, email : String )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C08F9F9-B2BB-42E1-82C7-FA2BBEF45F51}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{06BF7240-FDB2-41C1-A0F5-66579A2F96DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7210425" y="7410450"/>
-          <a:ext cx="5038725" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getReservationsByUserId( userId : int )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>-- List&lt;Reservation&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1511947-3E91-404D-92D2-DB11A475E5D3}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6C08F9F9-B2BB-42E1-82C7-FA2BBEF45F51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7219950" y="8172450"/>
-          <a:ext cx="5038725" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getReservationPastsByUserId( userId : int )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>-- List&lt;ReservationPast&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E1511947-3E91-404D-92D2-DB11A475E5D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7200900" y="9334501"/>
-          <a:ext cx="5181600" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getReservationAblesByInterviewerName( interviewerName : String )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>-- List&lt;Reservation&gt;</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3693,34 +5152,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2340-5DDE-46FC-AC51-D1EAD895E92E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2000D84-94B0-4F30-9777-BECB658A908D}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8" ht="18.75">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9" ht="18.75">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9" ht="18.75">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -3735,46 +5194,316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F20:O105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2340-5DDE-46FC-AC51-D1EAD895E92E}">
+  <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J9" workbookViewId="0">
-      <selection activeCell="AU22" sqref="AU22"/>
+    <sheetView topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8408A0-98F0-4C4B-AE98-3C3DEC4F613D}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="7:8" ht="18.75">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" ht="18.75">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="18.75">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" ht="18.75">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15" ht="18.75">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152B3687-1F78-4A37-B376-72F07A58A3F3}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="7:8" ht="18.75">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" ht="18.75">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="18.75">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" ht="18.75">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" ht="18.75">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F46C14-E3D3-4120-8FA3-96A430623F98}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="7:8" ht="18.75">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" ht="18.75">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="18.75">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" ht="18.75">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" ht="18.75">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BE052-5757-4868-9681-5598B0EB4E85}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="7:8" ht="18.75">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" ht="18.75">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="18.75">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" ht="18.75">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" ht="18.75">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEBA9085-F4B4-49C9-90A2-C2108123DC60}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73A1E113-71CA-4137-AB14-4B8D23D89955}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetService" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t xml:space="preserve"> アクター別パッケージ名</t>
+  </si>
+  <si>
+    <t>Optionalなしで、User単体の返り値</t>
+  </si>
+  <si>
+    <t>返り値: Userエンティティ単体に変更</t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BFC56B-410A-4178-AB8B-E5CBB9CFCB49}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{683128E0-09AD-455F-AA3E-5F9E415A9C43}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{86243E9A-F777-499D-BE06-55518202E216}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -684,7 +690,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r Optional&lt;User&gt;</a:t>
+            <a:t>--r User</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2937,7 +2943,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r String</a:t>
+            <a:t>--r User</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5155,8 +5161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2000D84-94B0-4F30-9777-BECB658A908D}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5197,8 +5203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2340-5DDE-46FC-AC51-D1EAD895E92E}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView topLeftCell="K15" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5239,8 +5245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8408A0-98F0-4C4B-AE98-3C3DEC4F613D}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5254,16 +5260,21 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:13" ht="18.75">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:13" ht="18.75">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="8:13">
+      <c r="M42" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="12:15" ht="18.75">
@@ -5296,8 +5307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152B3687-1F78-4A37-B376-72F07A58A3F3}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5353,7 +5364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F46C14-E3D3-4120-8FA3-96A430623F98}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
@@ -5410,7 +5421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BE052-5757-4868-9681-5598B0EB4E85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="BP1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -5467,8 +5478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5489,6 +5500,11 @@
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="12:15">
+      <c r="L49" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="12:15">

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73A1E113-71CA-4137-AB14-4B8D23D89955}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BDE4F2-BF0E-4A82-9534-054356955A08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetService" sheetId="7" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="UserGetService" sheetId="4" r:id="rId3"/>
     <sheet name="UserSetService" sheetId="5" r:id="rId4"/>
     <sheet name="ReservationsGetService" sheetId="6" r:id="rId5"/>
-    <sheet name="UserDeleteService" sheetId="3" r:id="rId6"/>
-    <sheet name="LoginService" sheetId="1" r:id="rId7"/>
+    <sheet name="ReservationDeleteService" sheetId="8" r:id="rId6"/>
+    <sheet name="UserDeleteService" sheetId="3" r:id="rId7"/>
+    <sheet name="LoginService" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,10 +32,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -69,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2958,15 +2959,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2984,8 +2985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6600825" y="2324100"/>
-          <a:ext cx="5905500" cy="5600700"/>
+          <a:off x="6610350" y="2695575"/>
+          <a:ext cx="5905500" cy="7162800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3894,10 +3895,969 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D18EF2-C0B9-476A-A510-BCCF56BDA0D7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1AFF6D72-D659-483A-9259-2C18CB629AAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="7705725"/>
+          <a:ext cx="5038725" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservationById( id : int )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-- Reservation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC1D6A57-02C6-4380-8FF1-464CAC684149}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1AFF6D72-D659-483A-9259-2C18CB629AAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="8534400"/>
+          <a:ext cx="5038725" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservationPastById( userId : int )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-- ReservationPast</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51EAC841-7BA1-4A38-AF98-747B9C8E78EC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610350" y="2695575"/>
+          <a:ext cx="5905500" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationDeleteService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9604730F-5F2A-411D-B487-FE483F11AB24}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{858E1EF8-AAE4-442F-BCE7-8CA9A20463C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="4238625"/>
+          <a:ext cx="3590925" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D027905-EDDB-4EF5-8E20-EBFB0000970F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9BDC46D4-2767-4358-8DBE-1D0A659E9549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="4191000"/>
+          <a:ext cx="3752850" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository : ReservationsRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA90735-F8BB-4143-958C-20D8F61E8803}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1AFF6D72-D659-483A-9259-2C18CB629AAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="5286375"/>
+          <a:ext cx="5038725" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>deleteReservationPastById( id : int )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4366,7 +5326,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5165,27 +6125,27 @@
       <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5207,27 +6167,27 @@
       <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5249,47 +6209,47 @@
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="16" max="16" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:13" ht="18.75">
+    <row r="34" spans="8:13" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:13" ht="18.75">
+    <row r="36" spans="8:13" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="8:13">
+    <row r="42" spans="8:13" x14ac:dyDescent="0.4">
       <c r="M42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="18.75">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" ht="18.75">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5311,42 +6271,42 @@
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="16" max="16" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="18.75">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" ht="18.75">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5364,46 +6324,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F46C14-E3D3-4120-8FA3-96A430623F98}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="16" max="16" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="18.75">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" ht="18.75">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5418,49 +6378,49 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BE052-5757-4868-9681-5598B0EB4E85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4736699-459E-4138-BB6A-FE990FFAA08C}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="BP1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18:V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="16" max="16" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="18.75">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" ht="18.75">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5475,51 +6435,108 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BE052-5757-4868-9681-5598B0EB4E85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView topLeftCell="BP1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="12:15">
-      <c r="L49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\service\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BDE4F2-BF0E-4A82-9534-054356955A08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA12B018-79C6-4FC2-B155-CC571D529767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetService" sheetId="7" r:id="rId1"/>
@@ -908,15 +908,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -931,8 +931,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6591300" y="1266825"/>
-          <a:ext cx="10496550" cy="3914775"/>
+          <a:off x="6553200" y="1524000"/>
+          <a:ext cx="10496550" cy="4600575"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1599,7 +1599,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>144779</xdr:rowOff>
     </xdr:to>
@@ -1619,8 +1619,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9740265" y="3971924"/>
-          <a:ext cx="3009900" cy="744855"/>
+          <a:off x="9953625" y="4133849"/>
+          <a:ext cx="3371850" cy="773430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1763,21 +1763,17 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>confirmUserName ( userName : String )</a:t>
+            <a:t>confirmDoubleCheck ( form</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : SignupForm</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -1785,187 +1781,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r Boolean</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7078CBE-EEF8-4A77-B66F-F4A0FDC01543}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{321FC4DB-6CDA-4620-9287-A933FBA7955D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13211175" y="3476625"/>
-          <a:ext cx="3086100" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>confirmEmail ( email : String )</a:t>
+            <a:t> )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6163,8 +5979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2340-5DDE-46FC-AC51-D1EAD895E92E}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="K15" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6381,7 +6197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4736699-459E-4138-BB6A-FE990FFAA08C}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+    <sheetView topLeftCell="E10" workbookViewId="0">
       <selection activeCell="U18" sqref="U18:V18"/>
     </sheetView>
   </sheetViews>

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA12B018-79C6-4FC2-B155-CC571D529767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{899DA3CD-439D-41AD-8141-7F24718B49F4}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetService" sheetId="7" r:id="rId1"/>
@@ -18,9 +18,8 @@
     <sheet name="UserGetService" sheetId="4" r:id="rId3"/>
     <sheet name="UserSetService" sheetId="5" r:id="rId4"/>
     <sheet name="ReservationsGetService" sheetId="6" r:id="rId5"/>
-    <sheet name="ReservationDeleteService" sheetId="8" r:id="rId6"/>
-    <sheet name="UserDeleteService" sheetId="3" r:id="rId7"/>
-    <sheet name="LoginService" sheetId="1" r:id="rId8"/>
+    <sheet name="UserDeleteService" sheetId="3" r:id="rId6"/>
+    <sheet name="LoginService" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,10 +31,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -70,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,15 +907,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -931,8 +930,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6553200" y="1524000"/>
-          <a:ext cx="10496550" cy="4600575"/>
+          <a:off x="6591300" y="1266825"/>
+          <a:ext cx="10496550" cy="3914775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1595,13 +1594,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>144779</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1619,8 +1618,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9953625" y="4133849"/>
-          <a:ext cx="3371850" cy="773430"/>
+          <a:off x="9953625" y="4133850"/>
+          <a:ext cx="3571875" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1763,25 +1762,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>confirmDoubleCheck ( form</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : SignupForm</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> )</a:t>
+            <a:t>checkDouble ( form : SignupForm )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2775,15 +2756,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2801,8 +2782,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6610350" y="2695575"/>
-          <a:ext cx="5905500" cy="7162800"/>
+          <a:off x="6600825" y="2324100"/>
+          <a:ext cx="5905500" cy="5600700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3711,969 +3692,10 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="四角形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D18EF2-C0B9-476A-A510-BCCF56BDA0D7}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1AFF6D72-D659-483A-9259-2C18CB629AAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6915150" y="7705725"/>
-          <a:ext cx="5038725" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getReservationById( id : int )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>-- Reservation</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="四角形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC1D6A57-02C6-4380-8FF1-464CAC684149}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1AFF6D72-D659-483A-9259-2C18CB629AAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6934200" y="8534400"/>
-          <a:ext cx="5038725" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getReservationPastById( userId : int )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>-- ReservationPast</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51EAC841-7BA1-4A38-AF98-747B9C8E78EC}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6610350" y="2695575"/>
-          <a:ext cx="5905500" cy="7162800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ReservationDeleteService</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9604730F-5F2A-411D-B487-FE483F11AB24}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{858E1EF8-AAE4-442F-BCE7-8CA9A20463C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429500" y="4238625"/>
-          <a:ext cx="3590925" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>repository</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : UsersRepository</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D027905-EDDB-4EF5-8E20-EBFB0000970F}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9BDC46D4-2767-4358-8DBE-1D0A659E9549}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7362825" y="4191000"/>
-          <a:ext cx="3752850" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>repository : ReservationsRepository</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA90735-F8BB-4143-958C-20D8F61E8803}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1AFF6D72-D659-483A-9259-2C18CB629AAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6981825" y="5286375"/>
-          <a:ext cx="5038725" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>deleteReservationPastById( id : int )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> String</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5142,7 +4164,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5941,27 +4963,27 @@
       <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8" ht="18.75">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9" ht="18.75">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9" ht="18.75">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5979,31 +5001,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2340-5DDE-46FC-AC51-D1EAD895E92E}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="O11" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -6025,47 +5047,47 @@
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="16" max="16" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8" ht="18.75">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:13" ht="18.75">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:13" ht="18.75">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="8:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="8:13">
       <c r="M42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15" ht="18.75">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15" ht="18.75">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -6087,42 +5109,42 @@
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="16" max="16" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8" ht="18.75">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9" ht="18.75">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9" ht="18.75">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15" ht="18.75">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15" ht="18.75">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -6140,46 +5162,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F46C14-E3D3-4120-8FA3-96A430623F98}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="16" max="16" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8" ht="18.75">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9" ht="18.75">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9" ht="18.75">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15" ht="18.75">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15" ht="18.75">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -6194,49 +5216,49 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4736699-459E-4138-BB6A-FE990FFAA08C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BE052-5757-4868-9681-5598B0EB4E85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18:V18"/>
+    <sheetView topLeftCell="BP1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="16" max="16" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8" ht="18.75">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9" ht="18.75">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9" ht="18.75">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15" ht="18.75">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15" ht="18.75">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -6251,108 +5273,51 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BE052-5757-4868-9681-5598B0EB4E85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="BP1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="16" max="16" width="9.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="12:15">
+      <c r="L49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F20:O105"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="12:15" x14ac:dyDescent="0.4">
-      <c r="L49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{899DA3CD-439D-41AD-8141-7F24718B49F4}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03CDE7C7-D61F-4545-97A3-02965339FB8A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetService" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Optionalなしで、User単体の返り値</t>
+  </si>
+  <si>
+    <t>返り値なしに変更</t>
   </si>
   <si>
     <t>返り値: Userエンティティ単体に変更</t>
@@ -5001,7 +5004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2340-5DDE-46FC-AC51-D1EAD895E92E}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O11" workbookViewId="0">
+    <sheetView topLeftCell="O11" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
@@ -5044,7 +5047,7 @@
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5219,8 +5222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BE052-5757-4868-9681-5598B0EB4E85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="BP1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5234,16 +5237,21 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:14" ht="18.75">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:14" ht="18.75">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="8:14">
+      <c r="N42" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="12:15" ht="18.75">
@@ -5302,7 +5310,7 @@
     </row>
     <row r="49" spans="12:15">
       <c r="L49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="12:15">

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03CDE7C7-D61F-4545-97A3-02965339FB8A}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D4AB4B1-4710-48CB-BDA6-D422FE25D301}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetService" sheetId="7" r:id="rId1"/>
@@ -2722,7 +2722,209 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>setUser( id : int,  userName : String, kana : String, email : String )</a:t>
+            <a:t>setUser( id : int,   updates : Map&lt;String, String&gt; )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r User</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECAC902-D4FF-4D67-B35F-10651BD949CF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A6554A01-0086-49A0-9AD0-C28426F8EEEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="5495925"/>
+          <a:ext cx="5038725" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getUser( id : int )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5108,8 +5310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152B3687-1F78-4A37-B376-72F07A58A3F3}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5222,7 +5424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BE052-5757-4868-9681-5598B0EB4E85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D4AB4B1-4710-48CB-BDA6-D422FE25D301}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FCA8375-4E51-455B-B293-0F36098BD3BD}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetService" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Optionalなしで、User単体の返り値</t>
+  </si>
+  <si>
+    <t>getUserにメソッド名変更</t>
   </si>
   <si>
     <t>返り値なしに変更</t>
@@ -5249,7 +5252,7 @@
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5278,6 +5281,11 @@
     <row r="42" spans="8:13">
       <c r="M42" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="8:13">
+      <c r="M44" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="12:15" ht="18.75">
@@ -5310,8 +5318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152B3687-1F78-4A37-B376-72F07A58A3F3}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5453,7 +5461,7 @@
     </row>
     <row r="42" spans="8:14">
       <c r="N42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="12:15" ht="18.75">
@@ -5512,7 +5520,7 @@
     </row>
     <row r="49" spans="12:15">
       <c r="L49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="12:15">

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FCA8375-4E51-455B-B293-0F36098BD3BD}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0031576-C2FC-4A93-BE4F-B00ED115709F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetService" sheetId="7" r:id="rId1"/>
@@ -3223,16 +3223,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3250,7 +3250,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6943725" y="4105275"/>
+          <a:off x="4867275" y="11210925"/>
           <a:ext cx="5181600" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3425,16 +3425,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3452,7 +3452,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6934200" y="4962525"/>
+          <a:off x="4905375" y="11944350"/>
           <a:ext cx="5038725" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3798,7 +3798,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getReservationPastsByUserId( userId : int )</a:t>
+            <a:t>getReservations( userId :  Integer)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3820,7 +3820,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>-- List&lt;ReservationPast&gt;</a:t>
+            <a:t>-- List&lt;Reservation&gt;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5318,7 +5318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152B3687-1F78-4A37-B376-72F07A58A3F3}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
@@ -5375,8 +5375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F46C14-E3D3-4120-8FA3-96A430623F98}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0031576-C2FC-4A93-BE4F-B00ED115709F}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{199F7802-E9C0-489C-B1F3-A9BA32944565}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PassSetService" sheetId="7" r:id="rId1"/>
-    <sheet name="SignupService" sheetId="2" r:id="rId2"/>
-    <sheet name="UserGetService" sheetId="4" r:id="rId3"/>
-    <sheet name="UserSetService" sheetId="5" r:id="rId4"/>
-    <sheet name="ReservationsGetService" sheetId="6" r:id="rId5"/>
-    <sheet name="UserDeleteService" sheetId="3" r:id="rId6"/>
-    <sheet name="LoginService" sheetId="1" r:id="rId7"/>
+    <sheet name="SignupService" sheetId="2" r:id="rId1"/>
+    <sheet name="UserGetService" sheetId="4" r:id="rId2"/>
+    <sheet name="UserSetService" sheetId="5" r:id="rId3"/>
+    <sheet name="ReservationsGetService" sheetId="6" r:id="rId4"/>
+    <sheet name="UserDeleteService" sheetId="3" r:id="rId5"/>
+    <sheet name="LoginService" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -57,18 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve"> アクター別パッケージ名</t>
-  </si>
-  <si>
-    <t>Optionalなしで、User単体の返り値</t>
-  </si>
-  <si>
-    <t>getUserにメソッド名変更</t>
-  </si>
-  <si>
-    <t>返り値なしに変更</t>
-  </si>
-  <si>
-    <t>返り値: Userエンティティ単体に変更</t>
   </si>
 </sst>
 </file>
@@ -200,731 +187,6 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010168EC-A859-4864-9B85-576E341A15A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6591300" y="1495425"/>
-          <a:ext cx="10496550" cy="4600575"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>PassSetService</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F574CAB-9F7E-44F9-88D6-6A440F6DF525}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{010168EC-A859-4864-9B85-576E341A15A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7553325" y="3257550"/>
-          <a:ext cx="2209800" cy="598170"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>repository : UsersRepository</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86243E9A-F777-499D-BE06-55518202E216}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0F574CAB-9F7E-44F9-88D6-6A440F6DF525}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9944100" y="3248025"/>
-          <a:ext cx="2486025" cy="645795"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>passEncoder : PasswordEncoder</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="四角形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BFC56B-410A-4178-AB8B-E5CBB9CFCB49}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{86243E9A-F777-499D-BE06-55518202E216}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7486650" y="5095875"/>
-          <a:ext cx="3343275" cy="676275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getUserByEmail ( email : String )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r User</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="四角形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D92470-9054-4208-ABB4-13D14710438A}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B7BFC56B-410A-4178-AB8B-E5CBB9CFCB49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11001375" y="5086350"/>
-          <a:ext cx="3343275" cy="676275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>setUserPass( id : int, newPass : String )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="角丸四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -1791,6 +1053,473 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>--r Boolean</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D624869-2894-4CE5-A109-390033B21165}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419850" y="2028825"/>
+          <a:ext cx="5905500" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>UserGetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C826DA-E636-4B03-BE48-6B6B1D52EBF9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8D624869-2894-4CE5-A109-390033B21165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="3590925"/>
+          <a:ext cx="3590925" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6ED6452-0DF5-42F0-ADB9-A3247D2B4259}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{43C826DA-E636-4B03-BE48-6B6B1D52EBF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7324725" y="4943475"/>
+          <a:ext cx="3571875" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getUser ( id : Integer )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r User</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1820,7 +1549,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D624869-2894-4CE5-A109-390033B21165}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8347A33F-1466-4B83-8760-752AF1BDDAC7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
@@ -1879,7 +1608,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>UserGetService</a:t>
+            <a:t>UserSetService</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1904,10 +1633,10 @@
         <xdr:cNvPr id="3" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C826DA-E636-4B03-BE48-6B6B1D52EBF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87E1B56-50BA-46A1-AFD7-A0C980AC14F9}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8D624869-2894-4CE5-A109-390033B21165}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8347A33F-1466-4B83-8760-752AF1BDDAC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,26 +1793,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA720C4B-31A0-4F89-8621-B0F6AB8360D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6554A01-0086-49A0-9AD0-C28426F8EEEE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{43C826DA-E636-4B03-BE48-6B6B1D52EBF9}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D87E1B56-50BA-46A1-AFD7-A0C980AC14F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,8 +1820,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7410450" y="4552950"/>
-          <a:ext cx="3971925" cy="733425"/>
+          <a:off x="6838950" y="4829175"/>
+          <a:ext cx="5038725" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2100,13 +1829,6 @@
         <a:solidFill>
           <a:srgbClr val="91A5C4"/>
         </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2224,64 +1946,435 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getUserById(id</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : int)</a:t>
+            <a:t>setUser( id : Integer,   updates : Map&lt;String, String&gt; )</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r Optional&lt;</a:t>
+            <a:t>--r User</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECAC902-D4FF-4D67-B35F-10651BD949CF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A6554A01-0086-49A0-9AD0-C28426F8EEEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="5495925"/>
+          <a:ext cx="5038725" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>User</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>&gt;</a:t>
+            <a:t>getUser( id : Integer )</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r User</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6711782A-8E47-497F-A154-CFE3CD0E379D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BECAC902-D4FF-4D67-B35F-10651BD949CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="4019550"/>
+          <a:ext cx="2562225" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>passEncoder : PasswordEncoder</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2291,6 +2384,546 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858E1EF8-AAE4-442F-BCE7-8CA9A20463C9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="2324100"/>
+          <a:ext cx="5905500" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationsGetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504CB7BB-EF30-4E04-AF44-C80406BB64CF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{858E1EF8-AAE4-442F-BCE7-8CA9A20463C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="3590925"/>
+          <a:ext cx="3590925" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BDC46D4-2767-4358-8DBE-1D0A659E9549}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{504CB7BB-EF30-4E04-AF44-C80406BB64CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="5791200"/>
+          <a:ext cx="5038725" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservations( userId :  Integer)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-- List&lt;Reservation&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA283918-12C8-9BBF-550D-68CE088A2526}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9BDC46D4-2767-4358-8DBE-1D0A659E9549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="3543300"/>
+          <a:ext cx="3752850" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository : ReservationsRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2307,10 +2940,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 10">
+        <xdr:cNvPr id="11" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8347A33F-1466-4B83-8760-752AF1BDDAC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41B2485-643B-4270-4C79-61CBEF1F85A1}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
@@ -2369,1619 +3002,6 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>UserSetService</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87E1B56-50BA-46A1-AFD7-A0C980AC14F9}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8347A33F-1466-4B83-8760-752AF1BDDAC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429500" y="3590925"/>
-          <a:ext cx="3590925" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>repository</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : UsersRepository</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6554A01-0086-49A0-9AD0-C28426F8EEEE}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D87E1B56-50BA-46A1-AFD7-A0C980AC14F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6838950" y="4829175"/>
-          <a:ext cx="5038725" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>setUser( id : int,   updates : Map&lt;String, String&gt; )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r User</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECAC902-D4FF-4D67-B35F-10651BD949CF}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A6554A01-0086-49A0-9AD0-C28426F8EEEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6819900" y="5495925"/>
-          <a:ext cx="5038725" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getUser( id : int )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r User</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858E1EF8-AAE4-442F-BCE7-8CA9A20463C9}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6600825" y="2324100"/>
-          <a:ext cx="5905500" cy="5600700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ReservationsGetService</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504CB7BB-EF30-4E04-AF44-C80406BB64CF}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{858E1EF8-AAE4-442F-BCE7-8CA9A20463C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429500" y="3590925"/>
-          <a:ext cx="3590925" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>repository</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : UsersRepository</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1AB334E-3DD2-4163-8B7C-FF40D11AD65C}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{504CB7BB-EF30-4E04-AF44-C80406BB64CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4867275" y="11210925"/>
-          <a:ext cx="5181600" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getReservationAblesByInterviewerName( interviewerName : String )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>-- List&lt;Reservation&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFF6D72-D659-483A-9259-2C18CB629AAC}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A1AB334E-3DD2-4163-8B7C-FF40D11AD65C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4905375" y="11944350"/>
-          <a:ext cx="5038725" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getReservationsByUserId( userId : int )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>-- List&lt;Reservation&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BDC46D4-2767-4358-8DBE-1D0A659E9549}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1AFF6D72-D659-483A-9259-2C18CB629AAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6915150" y="5791200"/>
-          <a:ext cx="5038725" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getReservations( userId :  Integer)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>-- List&lt;Reservation&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA283918-12C8-9BBF-550D-68CE088A2526}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9BDC46D4-2767-4358-8DBE-1D0A659E9549}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7362825" y="3543300"/>
-          <a:ext cx="3752850" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>repository : ReservationsRepository</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41B2485-643B-4270-4C79-61CBEF1F85A1}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6419850" y="2028825"/>
-          <a:ext cx="5905500" cy="5600700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
             <a:t>UserDeleteService</a:t>
           </a:r>
         </a:p>
@@ -4167,26 +3187,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形 7">
+        <xdr:cNvPr id="2" name="四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2231FA-001B-4780-90C3-EEEB83EC2683}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{61FB6372-744C-4096-808F-569297F72F01}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DBFD7B8D-BFF6-4C92-95FF-605D25402E8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4194,8 +3214,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334249" y="4848224"/>
-          <a:ext cx="3971925" cy="619125"/>
+          <a:off x="6791325" y="4705350"/>
+          <a:ext cx="5038725" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4203,13 +3223,6 @@
         <a:solidFill>
           <a:srgbClr val="91A5C4"/>
         </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4327,43 +3340,48 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>deleteUserById(id</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : int)</a:t>
+            <a:t>deleteUser( id : Integer )</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r String</a:t>
+            <a:t>-- </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4372,7 +3390,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4632,22 +3650,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="四角形 7">
+        <xdr:cNvPr id="2" name="四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFDAC4A-F9D5-49D4-A6E4-A564A3A95CFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9122CF9D-6D09-4315-9C09-D9F074DEF0E2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B9CB05A9-72F4-4FC7-987D-7049D996FD44}"/>
@@ -4658,8 +3676,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7219949" y="4257674"/>
-          <a:ext cx="3971925" cy="733425"/>
+          <a:off x="7305675" y="4505325"/>
+          <a:ext cx="5038725" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4667,13 +3685,6 @@
         <a:solidFill>
           <a:srgbClr val="91A5C4"/>
         </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4791,55 +3802,48 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getUserByEmail(email</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : String)</a:t>
+            <a:t>getUser(  email : String )</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r </a:t>
+            <a:t>-- User</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Optional&lt;User&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5164,53 +4168,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2000D84-94B0-4F30-9777-BECB658A908D}">
-  <dimension ref="F20:I105"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="34" spans="8:9" ht="18.75">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9" ht="18.75">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="6:7" ht="30">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2340-5DDE-46FC-AC51-D1EAD895E92E}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="O11" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5247,12 +4209,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8408A0-98F0-4C4B-AE98-3C3DEC4F613D}">
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5266,26 +4228,73 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:13" ht="18.75">
+    <row r="34" spans="8:9" ht="18.75">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:13" ht="18.75">
+    <row r="36" spans="8:9" ht="18.75">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="8:13">
-      <c r="M42" t="s">
-        <v>4</v>
+    <row r="52" spans="12:15" ht="18.75">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" ht="18.75">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="44" spans="8:13">
-      <c r="M44" t="s">
-        <v>5</v>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152B3687-1F78-4A37-B376-72F07A58A3F3}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="7:8" ht="18.75">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" ht="18.75">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="18.75">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="12:15" ht="18.75">
@@ -5315,11 +4324,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152B3687-1F78-4A37-B376-72F07A58A3F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F46C14-E3D3-4120-8FA3-96A430623F98}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5372,11 +4381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F46C14-E3D3-4120-8FA3-96A430623F98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BE052-5757-4868-9681-5598B0EB4E85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5429,73 +4438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BE052-5757-4868-9681-5598B0EB4E85}">
-  <dimension ref="F20:O105"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="16" max="16" width="9.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="34" spans="8:14" ht="18.75">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:14" ht="18.75">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="8:14">
-      <c r="N42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15" ht="18.75">
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="12:15" ht="18.75">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="105" spans="6:7" ht="30">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5516,11 +4463,6 @@
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="12:15">
-      <c r="L49" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="52" spans="12:15">

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29607"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{199F7802-E9C0-489C-B1F3-A9BA32944565}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B084289-1428-416E-ACF2-0E12D8FF4310}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignupService" sheetId="2" r:id="rId1"/>
     <sheet name="UserGetService" sheetId="4" r:id="rId2"/>
     <sheet name="UserSetService" sheetId="5" r:id="rId3"/>
-    <sheet name="ReservationsGetService" sheetId="6" r:id="rId4"/>
-    <sheet name="UserDeleteService" sheetId="3" r:id="rId5"/>
-    <sheet name="LoginService" sheetId="1" r:id="rId6"/>
+    <sheet name="ReservationDeleteService" sheetId="8" r:id="rId4"/>
+    <sheet name="ReservationGetService" sheetId="7" r:id="rId5"/>
+    <sheet name="ReservationsGetService" sheetId="6" r:id="rId6"/>
+    <sheet name="UserDeleteService" sheetId="3" r:id="rId7"/>
+    <sheet name="LoginService" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -2403,7 +2405,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858E1EF8-AAE4-442F-BCE7-8CA9A20463C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB914388-B231-47B4-98F1-519083ABB099}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
@@ -2462,6 +2464,1086 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
+            <a:t>ReservationDeleteService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15106967-2F54-45DA-973D-9F3617FAD54C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FB914388-B231-47B4-98F1-519083ABB099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="3590925"/>
+          <a:ext cx="3590925" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B6AB5A-28B2-4A7C-9602-FA44B25F7311}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{15106967-2F54-45DA-973D-9F3617FAD54C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="5791200"/>
+          <a:ext cx="5038725" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>deleteReservation( id :  Integer)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-- </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A456D2D5-EE77-4723-B4B9-048B27A9117C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{86B6AB5A-28B2-4A7C-9602-FA44B25F7311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="3543300"/>
+          <a:ext cx="3752850" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository : ReservationsRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC24645E-C41B-42CB-BAAD-C23453B7B50C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="2324100"/>
+          <a:ext cx="5905500" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationGetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD71D2FD-D55F-47A0-8792-D3913DC6A224}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FC24645E-C41B-42CB-BAAD-C23453B7B50C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="3590925"/>
+          <a:ext cx="3590925" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB48240-BF2C-4926-B5BA-7CB72D17783C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FD71D2FD-D55F-47A0-8792-D3913DC6A224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="5791200"/>
+          <a:ext cx="5038725" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservation( id :  Integer)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-- Reservation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED262063-2A72-4024-9B28-EFA55C3BA7A8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DDB48240-BF2C-4926-B5BA-7CB72D17783C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="3543300"/>
+          <a:ext cx="3752850" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository : ReservationsRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858E1EF8-AAE4-442F-BCE7-8CA9A20463C9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="2324100"/>
+          <a:ext cx="5905500" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
             <a:t>ReservationsGetService</a:t>
           </a:r>
         </a:p>
@@ -2923,7 +4005,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3390,7 +4472,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4171,7 +5253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2340-5DDE-46FC-AC51-D1EAD895E92E}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -4324,11 +5406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F46C14-E3D3-4120-8FA3-96A430623F98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E46A21A-864F-4BDD-82FD-1EBD12D3DA43}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4381,6 +5463,120 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BFB35F-4E16-40EF-9B7D-690060E8830E}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="7:8" ht="18.75">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" ht="18.75">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="18.75">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" ht="18.75">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" ht="18.75">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F46C14-E3D3-4120-8FA3-96A430623F98}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="P62" sqref="P62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="7:8" ht="18.75">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" ht="18.75">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="18.75">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" ht="18.75">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" ht="18.75">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BE052-5757-4868-9681-5598B0EB4E85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -4437,7 +5633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F20:O105"/>
   <sheetViews>

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29622"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B084289-1428-416E-ACF2-0E12D8FF4310}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7312A70B-17E1-4B7C-8BAD-674A2A67ADD9}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignupService" sheetId="2" r:id="rId1"/>
@@ -3382,7 +3382,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>-- Reservation</a:t>
+            <a:t>--r Reservation</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5409,7 +5409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E46A21A-864F-4BDD-82FD-1EBD12D3DA43}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -5466,8 +5466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BFB35F-4E16-40EF-9B7D-690060E8830E}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29622"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java2025\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7312A70B-17E1-4B7C-8BAD-674A2A67ADD9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0796DE-D4E1-4113-8069-A3444B5F1B6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SignupService" sheetId="2" r:id="rId1"/>
-    <sheet name="UserGetService" sheetId="4" r:id="rId2"/>
-    <sheet name="UserSetService" sheetId="5" r:id="rId3"/>
-    <sheet name="ReservationDeleteService" sheetId="8" r:id="rId4"/>
-    <sheet name="ReservationGetService" sheetId="7" r:id="rId5"/>
-    <sheet name="ReservationsGetService" sheetId="6" r:id="rId6"/>
-    <sheet name="UserDeleteService" sheetId="3" r:id="rId7"/>
-    <sheet name="LoginService" sheetId="1" r:id="rId8"/>
+    <sheet name="InterviewersGetService" sheetId="9" r:id="rId1"/>
+    <sheet name="SignupService" sheetId="2" r:id="rId2"/>
+    <sheet name="UserGetService" sheetId="4" r:id="rId3"/>
+    <sheet name="UserSetService" sheetId="5" r:id="rId4"/>
+    <sheet name="ReservationDeleteService" sheetId="8" r:id="rId5"/>
+    <sheet name="ReservationGetService" sheetId="7" r:id="rId6"/>
+    <sheet name="ReservationsGetService" sheetId="6" r:id="rId7"/>
+    <sheet name="UserDeleteService" sheetId="3" r:id="rId8"/>
+    <sheet name="LoginService" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,10 +33,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="4">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -64,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +177,468 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC0D62E-3562-4937-A43A-73049E8802E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="2733675"/>
+          <a:ext cx="6191250" cy="8267700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>InterviewersGetService</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34387550-487B-4906-A9E4-3D18463AF8B2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="3686175"/>
+          <a:ext cx="3571875" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : InterviewersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7CD9C8-DD95-48AC-B156-E82A724C1375}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B9CB05A9-72F4-4FC7-987D-7049D996FD44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7305675" y="4505325"/>
+          <a:ext cx="5038725" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getInterviewers(  )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-- List&lt;Interviewer&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -1055,473 +1518,6 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>--r Boolean</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D624869-2894-4CE5-A109-390033B21165}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6419850" y="2028825"/>
-          <a:ext cx="5905500" cy="5600700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>UserGetService</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C826DA-E636-4B03-BE48-6B6B1D52EBF9}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8D624869-2894-4CE5-A109-390033B21165}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429500" y="3590925"/>
-          <a:ext cx="3590925" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>repository</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : UsersRepository</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6ED6452-0DF5-42F0-ADB9-A3247D2B4259}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{43C826DA-E636-4B03-BE48-6B6B1D52EBF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7324725" y="4943475"/>
-          <a:ext cx="3571875" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getUser ( id : Integer )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r User</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1551,7 +1547,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8347A33F-1466-4B83-8760-752AF1BDDAC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D624869-2894-4CE5-A109-390033B21165}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
@@ -1610,6 +1606,473 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
+            <a:t>UserGetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C826DA-E636-4B03-BE48-6B6B1D52EBF9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8D624869-2894-4CE5-A109-390033B21165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="3590925"/>
+          <a:ext cx="3590925" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6ED6452-0DF5-42F0-ADB9-A3247D2B4259}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{43C826DA-E636-4B03-BE48-6B6B1D52EBF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7324725" y="4943475"/>
+          <a:ext cx="3571875" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getUser ( id : Integer )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r User</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8347A33F-1466-4B83-8760-752AF1BDDAC7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419850" y="2028825"/>
+          <a:ext cx="5905500" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
             <a:t>UserSetService</a:t>
           </a:r>
         </a:p>
@@ -2376,546 +2839,6 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>passEncoder : PasswordEncoder</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB914388-B231-47B4-98F1-519083ABB099}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6600825" y="2324100"/>
-          <a:ext cx="5905500" cy="5600700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ReservationDeleteService</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15106967-2F54-45DA-973D-9F3617FAD54C}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FB914388-B231-47B4-98F1-519083ABB099}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429500" y="3590925"/>
-          <a:ext cx="3590925" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>repository</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : UsersRepository</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B6AB5A-28B2-4A7C-9602-FA44B25F7311}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{15106967-2F54-45DA-973D-9F3617FAD54C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6915150" y="5791200"/>
-          <a:ext cx="5038725" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>deleteReservation( id :  Integer)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>-- </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A456D2D5-EE77-4723-B4B9-048B27A9117C}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{86B6AB5A-28B2-4A7C-9602-FA44B25F7311}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7362825" y="3543300"/>
-          <a:ext cx="3752850" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>repository : ReservationsRepository</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2945,7 +2868,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC24645E-C41B-42CB-BAAD-C23453B7B50C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB914388-B231-47B4-98F1-519083ABB099}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
@@ -3004,7 +2927,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>ReservationGetService</a:t>
+            <a:t>ReservationDeleteService</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3029,10 +2952,10 @@
         <xdr:cNvPr id="3" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD71D2FD-D55F-47A0-8792-D3913DC6A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15106967-2F54-45DA-973D-9F3617FAD54C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FC24645E-C41B-42CB-BAAD-C23453B7B50C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FB914388-B231-47B4-98F1-519083ABB099}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,10 +3128,10 @@
         <xdr:cNvPr id="4" name="四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB48240-BF2C-4926-B5BA-7CB72D17783C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B6AB5A-28B2-4A7C-9602-FA44B25F7311}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FD71D2FD-D55F-47A0-8792-D3913DC6A224}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{15106967-2F54-45DA-973D-9F3617FAD54C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3283,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getReservation( id :  Integer)</a:t>
+            <a:t>deleteReservation( id :  Integer)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3382,7 +3305,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r Reservation</a:t>
+            <a:t>-- </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3407,10 +3330,10 @@
         <xdr:cNvPr id="5" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED262063-2A72-4024-9B28-EFA55C3BA7A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A456D2D5-EE77-4723-B4B9-048B27A9117C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DDB48240-BF2C-4926-B5BA-7CB72D17783C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{86B6AB5A-28B2-4A7C-9602-FA44B25F7311}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3485,7 +3408,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858E1EF8-AAE4-442F-BCE7-8CA9A20463C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC24645E-C41B-42CB-BAAD-C23453B7B50C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
@@ -3544,6 +3467,546 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
+            <a:t>ReservationGetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD71D2FD-D55F-47A0-8792-D3913DC6A224}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FC24645E-C41B-42CB-BAAD-C23453B7B50C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="3590925"/>
+          <a:ext cx="3590925" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB48240-BF2C-4926-B5BA-7CB72D17783C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FD71D2FD-D55F-47A0-8792-D3913DC6A224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="5791200"/>
+          <a:ext cx="5038725" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservation( id :  Integer)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Reservation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED262063-2A72-4024-9B28-EFA55C3BA7A8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DDB48240-BF2C-4926-B5BA-7CB72D17783C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="3543300"/>
+          <a:ext cx="3752850" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository : ReservationsRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858E1EF8-AAE4-442F-BCE7-8CA9A20463C9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="2324100"/>
+          <a:ext cx="5905500" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
             <a:t>ReservationsGetService</a:t>
           </a:r>
         </a:p>
@@ -4005,7 +4468,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4472,7 +4935,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5250,34 +5713,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2340-5DDE-46FC-AC51-D1EAD895E92E}">
-  <dimension ref="F20:I105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15CD6FE-4DCE-4C8A-AC0E-9581679F0F3F}">
+  <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5286,55 +5761,40 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8408A0-98F0-4C4B-AE98-3C3DEC4F613D}">
-  <dimension ref="F20:O105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2340-5DDE-46FC-AC51-D1EAD895E92E}">
+  <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="16" max="16" width="9.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="18.75">
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="12:15" ht="18.75">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5349,49 +5809,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152B3687-1F78-4A37-B376-72F07A58A3F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8408A0-98F0-4C4B-AE98-3C3DEC4F613D}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="16" max="16" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="18.75">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" ht="18.75">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5406,49 +5866,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E46A21A-864F-4BDD-82FD-1EBD12D3DA43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152B3687-1F78-4A37-B376-72F07A58A3F3}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="16" max="16" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="18.75">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" ht="18.75">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5463,49 +5923,49 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BFB35F-4E16-40EF-9B7D-690060E8830E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E46A21A-864F-4BDD-82FD-1EBD12D3DA43}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="16" max="16" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="18.75">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" ht="18.75">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5520,49 +5980,49 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F46C14-E3D3-4120-8FA3-96A430623F98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BFB35F-4E16-40EF-9B7D-690060E8830E}">
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="P62" sqref="P62"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="16" max="16" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="18.75">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" ht="18.75">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5577,49 +6037,49 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BE052-5757-4868-9681-5598B0EB4E85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F46C14-E3D3-4120-8FA3-96A430623F98}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="16" max="16" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="18.75">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" ht="18.75">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5634,6 +6094,63 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BE052-5757-4868-9681-5598B0EB4E85}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -5641,39 +6158,39 @@
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
+++ b/class_diagram/after/service/user/面談予約システム_クラス図 (service.user).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java2025\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{9B0796DE-D4E1-4113-8069-A3444B5F1B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EBACEFE-8F65-4AA0-ADB3-147F4A706B90}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{9B0796DE-D4E1-4113-8069-A3444B5F1B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{081327AF-68DE-40EB-BCDA-6DCF4DEA567E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InterviewersGetService" sheetId="9" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <sheet name="TimesGetService" sheetId="12" r:id="rId5"/>
     <sheet name="SevenDatesGetService" sheetId="11" r:id="rId6"/>
     <sheet name="ReservationAblesGetService" sheetId="10" r:id="rId7"/>
-    <sheet name="ReservationDeleteService" sheetId="8" r:id="rId8"/>
-    <sheet name="ReservationGetService" sheetId="7" r:id="rId9"/>
-    <sheet name="ReservationsGetService" sheetId="6" r:id="rId10"/>
-    <sheet name="UserDeleteService" sheetId="3" r:id="rId11"/>
-    <sheet name="LoginService" sheetId="1" r:id="rId12"/>
+    <sheet name="ReservationDeleteService (2)" sheetId="13" r:id="rId8"/>
+    <sheet name="ReservationDeleteService" sheetId="8" r:id="rId9"/>
+    <sheet name="ReservationGetService" sheetId="7" r:id="rId10"/>
+    <sheet name="ReservationsGetService" sheetId="6" r:id="rId11"/>
+    <sheet name="UserDeleteService" sheetId="3" r:id="rId12"/>
+    <sheet name="LoginService" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="4">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -658,7 +659,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858E1EF8-AAE4-442F-BCE7-8CA9A20463C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC24645E-C41B-42CB-BAAD-C23453B7B50C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
@@ -717,6 +718,546 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
+            <a:t>ReservationGetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD71D2FD-D55F-47A0-8792-D3913DC6A224}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FC24645E-C41B-42CB-BAAD-C23453B7B50C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="3590925"/>
+          <a:ext cx="3590925" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB48240-BF2C-4926-B5BA-7CB72D17783C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FD71D2FD-D55F-47A0-8792-D3913DC6A224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="5791200"/>
+          <a:ext cx="5038725" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservation( id :  Integer)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Reservation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED262063-2A72-4024-9B28-EFA55C3BA7A8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DDB48240-BF2C-4926-B5BA-7CB72D17783C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="3543300"/>
+          <a:ext cx="3752850" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository : ReservationsRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858E1EF8-AAE4-442F-BCE7-8CA9A20463C9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="2324100"/>
+          <a:ext cx="5905500" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
             <a:t>ReservationsGetService</a:t>
           </a:r>
         </a:p>
@@ -1178,7 +1719,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1645,7 +2186,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5940,8 +6481,8 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -5954,7 +6495,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB914388-B231-47B4-98F1-519083ABB099}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8577E94E-2D5D-46A9-BB99-DAFBB6842124}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
@@ -5965,8 +6506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6600825" y="2324100"/>
-          <a:ext cx="5905500" cy="5600700"/>
+          <a:off x="6600825" y="1362075"/>
+          <a:ext cx="5905500" cy="6600825"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6013,7 +6554,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>ReservationDeleteService</a:t>
+            <a:t>ReservationRegisterService</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6023,25 +6564,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 7">
+        <xdr:cNvPr id="4" name="四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15106967-2F54-45DA-973D-9F3617FAD54C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F31E3B8-BCBE-4E48-9306-8893E0FD2DEF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FB914388-B231-47B4-98F1-519083ABB099}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8577E94E-2D5D-46A9-BB99-DAFBB6842124}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6049,184 +6590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7429500" y="3590925"/>
-          <a:ext cx="3590925" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>repository</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : UsersRepository</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B6AB5A-28B2-4A7C-9602-FA44B25F7311}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{15106967-2F54-45DA-973D-9F3617FAD54C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6915150" y="5791200"/>
-          <a:ext cx="5038725" cy="571500"/>
+          <a:off x="7343775" y="4295775"/>
+          <a:ext cx="5038725" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6369,7 +6734,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>deleteReservation( id :  Integer)</a:t>
+            <a:t>registerReservation(   form : ReservationRegisterForm )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6391,7 +6756,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>-- </a:t>
+            <a:t>--r Reservation</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6401,25 +6766,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A456D2D5-EE77-4723-B4B9-048B27A9117C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2687E8C1-B7D6-4528-AE79-E6CB508F1268}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{86B6AB5A-28B2-4A7C-9602-FA44B25F7311}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2F31E3B8-BCBE-4E48-9306-8893E0FD2DEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6427,7 +6792,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7362825" y="3543300"/>
+          <a:off x="7372350" y="2276475"/>
           <a:ext cx="3752850" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6465,6 +6830,700 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>repository : ReservationsRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EFC0735-2380-4B83-9ACD-228CD16B9717}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2687E8C1-B7D6-4528-AE79-E6CB508F1268}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="2743200"/>
+          <a:ext cx="3752850" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>timesRepository : TimesRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4432E49C-5915-4D27-A6D8-CC51C3106203}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2EFC0735-2380-4B83-9ACD-228CD16B9717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343775" y="3257550"/>
+          <a:ext cx="4105275" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>interviewersRepository : InterviewersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59234DCB-56B1-404B-ACB6-69D3D3F766F2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4432E49C-5915-4D27-A6D8-CC51C3106203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334250" y="3733800"/>
+          <a:ext cx="4105275" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>usersRepository : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7095A29C-1FF0-4A16-AF2C-0F6404B7533A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{59234DCB-56B1-404B-ACB6-69D3D3F766F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7324725" y="6086475"/>
+          <a:ext cx="5038725" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>doubleCheck(   form : ReservationRegisterForm )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Boolean</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6494,7 +7553,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC24645E-C41B-42CB-BAAD-C23453B7B50C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB914388-B231-47B4-98F1-519083ABB099}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
@@ -6553,7 +7612,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>ReservationGetService</a:t>
+            <a:t>ReservationDeleteService</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6578,10 +7637,10 @@
         <xdr:cNvPr id="3" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD71D2FD-D55F-47A0-8792-D3913DC6A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15106967-2F54-45DA-973D-9F3617FAD54C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FC24645E-C41B-42CB-BAAD-C23453B7B50C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FB914388-B231-47B4-98F1-519083ABB099}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6754,10 +7813,10 @@
         <xdr:cNvPr id="4" name="四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB48240-BF2C-4926-B5BA-7CB72D17783C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B6AB5A-28B2-4A7C-9602-FA44B25F7311}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FD71D2FD-D55F-47A0-8792-D3913DC6A224}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{15106967-2F54-45DA-973D-9F3617FAD54C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6909,7 +7968,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getReservation( id :  Integer)</a:t>
+            <a:t>deleteReservation( id :  Integer)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6931,7 +7990,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r Reservation</a:t>
+            <a:t>-- </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6956,10 +8015,10 @@
         <xdr:cNvPr id="5" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED262063-2A72-4024-9B28-EFA55C3BA7A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A456D2D5-EE77-4723-B4B9-048B27A9117C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DDB48240-BF2C-4926-B5BA-7CB72D17783C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{86B6AB5A-28B2-4A7C-9602-FA44B25F7311}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7384,6 +8443,63 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BFB35F-4E16-40EF-9B7D-690060E8830E}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F46C14-E3D3-4120-8FA3-96A430623F98}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -7440,7 +8556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BE052-5757-4868-9681-5598B0EB4E85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -7497,7 +8613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -7823,7 +8939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF65E88-8E51-44E6-A1BC-3DD2274C844B}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -7877,6 +8993,64 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B09ECDE-E3AD-4515-B7BC-D520C8DBC6A2}">
+  <dimension ref="F7:O105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" ht="18.75"/>
+    <row r="20" spans="7:8" ht="18.75">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" ht="18.75">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="18.75">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" ht="18.75">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" ht="18.75">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E46A21A-864F-4BDD-82FD-1EBD12D3DA43}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -7931,61 +9105,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BFB35F-4E16-40EF-9B7D-690060E8830E}">
-  <dimension ref="F20:O105"/>
-  <sheetViews>
-    <sheetView topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="16" max="16" width="9.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="20" spans="7:8">
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15">
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="12:15">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="105" spans="6:7" ht="30">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>